--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1232575.215290929</v>
+        <v>-1235130.398019459</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>46.36893455027538</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.93360397349252</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>100.3137235757493</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>34.98723076369677</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>52.00197938370838</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>188.3615744142533</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>64.49209805017031</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.727003575186913</v>
       </c>
       <c r="E7" t="n">
-        <v>137.0872572463026</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>111.4702381038701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.1127822067376</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>121.3090924494568</v>
       </c>
       <c r="W10" t="n">
-        <v>258.2165829089511</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>45.89043756183489</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>150.3341561773493</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>60.86846495359764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>131.7584887394948</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.10107535865899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>241.0762245119984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>123.9815576456783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033352</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D2" t="n">
-        <v>939.4077790033352</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E2" t="n">
-        <v>939.4077790033352</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F2" t="n">
-        <v>528.4218742137277</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G2" t="n">
-        <v>113.3494240587242</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2703.348742962513</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2350.580087692399</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.4781294962293</v>
+        <v>2281.722727133736</v>
       </c>
       <c r="C4" t="n">
-        <v>335.5419465683224</v>
+        <v>2112.786544205829</v>
       </c>
       <c r="D4" t="n">
-        <v>335.5419465683224</v>
+        <v>1962.669904793493</v>
       </c>
       <c r="E4" t="n">
-        <v>335.5419465683224</v>
+        <v>1814.7568112111</v>
       </c>
       <c r="F4" t="n">
-        <v>335.5419465683224</v>
+        <v>1667.86686371319</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8391099430413</v>
+        <v>1500.164027087909</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>1500.164027087909</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9191734699991</v>
+        <v>2684.163771107505</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.126594326469</v>
+        <v>2463.371191963975</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1654.073787384533</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1285.111270444121</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>926.8455718373705</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>541.0573192391262</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>130.0714144495186</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>119.0393683349192</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3135.341605029117</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2804.278717685546</v>
       </c>
       <c r="W5" t="n">
-        <v>2359.600508066744</v>
+        <v>2804.278717685546</v>
       </c>
       <c r="X5" t="n">
-        <v>2359.600508066744</v>
+        <v>2430.812959424466</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.461176090932</v>
+        <v>2040.673627448654</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.2459535582122</v>
+        <v>531.3099827059882</v>
       </c>
       <c r="C7" t="n">
-        <v>302.3097706303054</v>
+        <v>362.3737997780813</v>
       </c>
       <c r="D7" t="n">
-        <v>302.3097706303054</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319821</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.894418388452</v>
+        <v>712.9584475362279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.97538618064</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.012869240228</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.747170633478</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.555433640143</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1234.140902980858</v>
       </c>
       <c r="W10" t="n">
-        <v>930.9964776139128</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="X10" t="n">
-        <v>930.9964776139128</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="Y10" t="n">
-        <v>710.2038984703827</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5361,22 +5361,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935558</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656489</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>516.5309703533131</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>368.61787677092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>368.61787677092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6470,40 +6470,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400717</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576786</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>219.0505596597682</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6850,19 +6850,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
         <v>782.551295565682</v>
@@ -7084,13 +7084,13 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,10 +7099,10 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7324,19 +7324,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>248.2388298370451</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>275.8186544966424</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.44129133857143</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>61.36518964614135</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22838,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>62.63359754464864</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.346705400266558</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,7 +22957,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.63304487516666</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>121.3563835367929</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>67.07129414993892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>191.2691783702303</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>33.76564955277408</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>45.44677382459258</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>153448.6945369145</v>
       </c>
       <c r="C2" t="n">
-        <v>183612.6304874391</v>
+        <v>183612.6304874393</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
@@ -26323,25 +26323,25 @@
         <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="I2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="I2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="J2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302515</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194635</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194637</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13430.06689216532</v>
+        <v>13430.06689216534</v>
       </c>
       <c r="C4" t="n">
-        <v>89948.20693708523</v>
+        <v>89948.2069370853</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="K4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493616</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.6673749362</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493618</v>
+        <v>21597.6673749362</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493621</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296660.058644237</v>
+        <v>-1297007.677574043</v>
       </c>
       <c r="C6" t="n">
-        <v>-14269.5170110394</v>
+        <v>-14281.98109695093</v>
       </c>
       <c r="D6" t="n">
         <v>-15993.38522512352</v>
       </c>
       <c r="E6" t="n">
-        <v>-258533.8148128536</v>
+        <v>-258568.5527382893</v>
       </c>
       <c r="F6" t="n">
-        <v>66878.64699450145</v>
+        <v>66843.90906906585</v>
       </c>
       <c r="G6" t="n">
-        <v>66878.64699450145</v>
+        <v>66843.90906906573</v>
       </c>
       <c r="H6" t="n">
-        <v>66878.64699450143</v>
+        <v>66843.90906906588</v>
       </c>
       <c r="I6" t="n">
-        <v>66878.64699450151</v>
+        <v>66843.90906906573</v>
       </c>
       <c r="J6" t="n">
-        <v>-150652.5554027761</v>
+        <v>-150687.2933282116</v>
       </c>
       <c r="K6" t="n">
-        <v>66878.64699450153</v>
+        <v>66843.90906906579</v>
       </c>
       <c r="L6" t="n">
-        <v>40544.89699698011</v>
+        <v>40544.89699698018</v>
       </c>
       <c r="M6" t="n">
-        <v>-25082.41294489971</v>
+        <v>-25082.41294489961</v>
       </c>
       <c r="N6" t="n">
-        <v>59972.61499061207</v>
+        <v>59972.61499061208</v>
       </c>
       <c r="O6" t="n">
+        <v>59972.614990612</v>
+      </c>
+      <c r="P6" t="n">
         <v>59972.61499061203</v>
-      </c>
-      <c r="P6" t="n">
-        <v>59972.6149906122</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>242.6057850036121</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>284.7488706672427</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>145.8884694430254</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>165.9159044010025</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>270.4601319683917</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.125156449316</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>130.8285508743712</v>
       </c>
       <c r="W10" t="n">
-        <v>28.30641542763988</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>453.4978307576758</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32081,25 +32081,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>583.0802355498163</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>161.7871425275301</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.560797075695</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>271.1474903386687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>730.4561889249562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>314.9434509778017</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>444.5258557699421</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>23.94570355317105</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125056</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>128.5512458942243</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>599.1144768416229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
